--- a/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
@@ -7,15 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ch-ehealth-codes" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from IHE Format Code " r:id="rId5" sheetId="3"/>
-    <sheet name="Include from unknown" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Property</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>OID:2.16.756.5.30.1.127.3.10.1.9 (use: official)</t>
+    <t>OID:2.16.756.5.30.1.127.3.10.1.9 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -95,9 +95,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Document format as per Annex; EPRO-FDHA.
-      		This unambiguous code defines the format of the XDS document. Together with the mimetype, this should provide the potential consumer with sufficient information as to whether they are in a position to process the document.
-    	</t>
+    <t>Document format as per Annex; EPRO-FDHA.       		This unambiguous code defines the format of the XDS document. Together with the mimetype, this should provide the potential consumer with sufficient information as to whether they are in a position to process the document.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -124,22 +122,58 @@
     <t>Unstructured EPR document</t>
   </si>
   <si>
+    <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
+  </si>
+  <si>
+    <t>CH VACD Immunization Administration</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-vacd:vaccination-record:2022</t>
+  </si>
+  <si>
+    <t>CH VACD Vaccination Record</t>
+  </si>
+  <si>
     <t>urn:che:epr:ch-emed:medication-card:2023</t>
   </si>
   <si>
     <t>CH EMED Medication Card document</t>
   </si>
   <si>
-    <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
-  </si>
-  <si>
-    <t>CH VACD Immunization Administration</t>
-  </si>
-  <si>
-    <t>urn:che:epr:ch-vacd:vaccination-record:2022</t>
-  </si>
-  <si>
-    <t>CH VACD Vaccination Record</t>
+    <t>urn:che:epr:ch-emed:mtp:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Treatment Plan document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:pre:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Prescription document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:dis:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Dispense document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:padv:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Pharmaceutical Advice document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:pml:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication List document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-allergyintolerance:2024</t>
+  </si>
+  <si>
+    <t>CH AllergyIntolerance document</t>
   </si>
   <si>
     <t/>
@@ -169,6 +203,12 @@
     <t>XDS-I Imaging Report with Structured Headings (XDS-I)</t>
   </si>
   <si>
+    <t>urn:ihe:iti:xds-sd:pdf:2008</t>
+  </si>
+  <si>
+    <t>Scanned Documents (PDF)</t>
+  </si>
+  <si>
     <t>urn:ihe:iti:xds-sd:text:2008</t>
   </si>
   <si>
@@ -223,10 +263,10 @@
     <t>MimeType sufficient</t>
   </si>
   <si>
-    <t>urn:ihe:iti:xds-sd:pdf:2008</t>
-  </si>
-  <si>
-    <t>Scanned Documents (PDF)</t>
+    <t>urn:ihe:pcc:ic:2008</t>
+  </si>
+  <si>
+    <t>Immunization Registry Content (IRC)</t>
   </si>
   <si>
     <t>http://ihe.net/fhir/ihe.formatcode.fhir/CodeSystem/formatcode</t>
@@ -523,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,15 +618,63 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +684,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,122 +704,130 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -761,26 +857,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.formatCode.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
